--- a/biology/Zoologie/Geomyidae/Geomyidae.xlsx
+++ b/biology/Zoologie/Geomyidae/Geomyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Géomyidés, Gaufres à poche, Rats à poche, Saccophore
-Les  Géomyidés (Geomyidae) sont une famille de rongeurs appelés géomys[1], gaufres à poche[2],[3], rats à poche[2] ou encore saccomys ou saccophore[4] (étymologiquement resp., « souris à sac » et « porteur de sac »), en raison de leurs grandes abajoues.
+Les  Géomyidés (Geomyidae) sont une famille de rongeurs appelés géomys, gaufres à poche rats à poche ou encore saccomys ou saccophore (étymologiquement resp., « souris à sac » et « porteur de sac »), en raison de leurs grandes abajoues.
 Cette famille a été décrite pour la première fois en 1845 par le zoologiste Charles-Lucien Bonaparte (1803-1857), l'un des neveux de Napoléon Bonaparte.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs abajoues s'ouvrent vers l'extérieur et servent à stocker la nourriture ; ils les vident à l'aide de leurs pattes de devant.
 Ils sont originaires d'Amérique centrale et d'Amérique du Nord.
@@ -545,9 +559,11 @@
           <t>Liste des genres et éventuels sous-genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification taxinomique de cette famille varie selon les bases de référence. Certains auteurs distinguent plusieurs sous-genres aux genres Orthogeomys et Thomomys[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification taxinomique de cette famille varie selon les bases de référence. Certains auteurs distinguent plusieurs sous-genres aux genres Orthogeomys et Thomomys.
 </t>
         </is>
       </c>
@@ -576,16 +592,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2016)[5], ITIS      (1 juin 2016)[6] et NCBI  (1 juin 2016)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2016), ITIS      (1 juin 2016) et NCBI  (1 juin 2016) :
 genre Cratogeomys Merriam, 1895
 genre Geomys Rafinesque, 1817
 genre Orthogeomys Merriam, 1895
 genre Pappogeomys Merriam, 1895
 genre Thomomys Wied-Neuwied, 1839
 genre Zygogeomys Merriam, 1895 - genre monotypique : Zygogeomys trichopus 
-Selon Paleobiology Database                   (5 nov. 2012)[8] :
+Selon Paleobiology Database                   (5 nov. 2012) :
 genre Cratogeomys
 Entoptychinae
 genre Geomys
